--- a/Results Table.xlsx
+++ b/Results Table.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Covid-19_Mortality_Rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Github\Covid-19_Mortality_Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A8B066-562E-455D-A870-F3EE591BEAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7E046-DFD5-4913-85FD-96A3E54E0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="1968" windowWidth="16248" windowHeight="10728" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>Decision Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,12 +74,24 @@
     <t>Recall - 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Random Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baysian Classifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,21 +108,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,22 +147,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +202,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -241,7 +292,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>Sheet1!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -262,9 +313,67 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Sheet1!$C$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -287,7 +396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$G$5</c:f>
+              <c:f>Sheet1!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -296,6 +405,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.65910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65869999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65590000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.65739999999999998</c:v>
@@ -315,7 +430,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
+              <c:f>Sheet1!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -336,9 +451,67 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Sheet1!$C$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -361,7 +534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$G$6</c:f>
+              <c:f>Sheet1!$C$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -370,6 +543,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.55810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54669999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5534</c:v>
@@ -389,7 +568,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$11</c:f>
+              <c:f>Sheet1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -410,9 +589,67 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Sheet1!$C$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -435,7 +672,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$G$11</c:f>
+              <c:f>Sheet1!$C$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -444,6 +681,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.71479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70909999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70289999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.70820000000000005</c:v>
@@ -459,8 +702,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -664,7 +908,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -696,13 +940,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Random</a:t>
+              <a:t>RF</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> Forest Performance</a:t>
+              <a:t> performance</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -746,9 +990,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$13</c:f>
+              <c:f>Sheet1!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision - 1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -764,28 +1011,115 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$G$12</c:f>
+              <c:f>Sheet1!$C$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.68389999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66579999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67949999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AAD-4B99-B9A9-6EE64570F5B0}"/>
+              <c16:uniqueId val="{00000000-5B48-49CC-BB52-03A985CC4193}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -794,9 +1128,12 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
+              <c:f>Sheet1!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall - 1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -812,28 +1149,115 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$G$12</c:f>
+              <c:f>Sheet1!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.58650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AAD-4B99-B9A9-6EE64570F5B0}"/>
+              <c16:uniqueId val="{00000001-5B48-49CC-BB52-03A985CC4193}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -842,9 +1266,12 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$15</c:f>
+              <c:f>Sheet1!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -860,45 +1287,133 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$G$12</c:f>
+              <c:f>Sheet1!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$15:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72740000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71619999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7268</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2AAD-4B99-B9A9-6EE64570F5B0}"/>
+              <c16:uniqueId val="{00000002-5B48-49CC-BB52-03A985CC4193}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="614085040"/>
-        <c:axId val="614080464"/>
+        <c:axId val="470991311"/>
+        <c:axId val="250994319"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="614085040"/>
+        <c:axId val="470991311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +1456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614080464"/>
+        <c:crossAx val="250994319"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,7 +1464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="614080464"/>
+        <c:axId val="250994319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1001,7 +1516,1193 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614085040"/>
+        <c:crossAx val="470991311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Baysian Classifier</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.87960000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88219999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62A1-4EBD-8948-541A00658AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38350000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62A1-4EBD-8948-541A00658AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73240000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-62A1-4EBD-8948-541A00658AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="470993631"/>
+        <c:axId val="251006799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="470993631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251006799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="251006799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470993631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$58:$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$59:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.80820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81159999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C93C-47D3-90D4-958D7A3454D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$58:$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$60:$G$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.52729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C93C-47D3-90D4-958D7A3454D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$58:$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76280000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C93C-47D3-90D4-958D7A3454D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="59517775"/>
+        <c:axId val="251001999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59517775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251001999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="251001999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59517775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,6 +2869,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2200,20 +3981,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2240,23 +5053,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F97B16B-DE42-FFEF-FC9D-8DCFF16D9765}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4BCA2C-8A7E-9662-BCE1-96A1C2271D22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,11 +5087,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D88AA0-BD0B-D462-F7CB-3623F41B3FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148DAEE4-ECF6-5E1A-1297-AA2EE29311CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2574,135 +5459,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE40CA-8F40-4AF2-8B4F-98FA1A2B1552}">
-  <dimension ref="A3:H11"/>
+  <dimension ref="A5:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7">
         <v>0.65590000000000004</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D7">
         <v>0.65910000000000002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="E7">
+        <v>0.65869999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.65739999999999998</v>
       </c>
-      <c r="H5">
-        <f>SUM(C5:G5)/5</f>
-        <v>0.39448</v>
+      <c r="I7">
+        <f>SUM(C7:G7)/5</f>
+        <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8">
         <v>0.55120000000000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D8">
         <v>0.55810000000000004</v>
       </c>
-      <c r="G6" s="1">
+      <c r="E8">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="G8" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H6">
-        <f>SUM(C6:G6)/5</f>
-        <v>0.33254</v>
+      <c r="I8">
+        <f>SUM(C8:G8)/5</f>
+        <v>0.55346000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10">
         <v>0.73129999999999995</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10">
         <v>0.74229999999999996</v>
       </c>
-      <c r="G8" s="1">
+      <c r="E10">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.72650000000000003</v>
+      </c>
+      <c r="G10">
         <v>0.73370000000000002</v>
       </c>
-      <c r="H8">
-        <f>SUM(C8:G8)/5</f>
-        <v>0.44146000000000002</v>
+      <c r="I10">
+        <f>SUM(C10:G10)/5</f>
+        <v>0.73370000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11">
         <v>0.80859999999999999</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11">
         <v>0.81520000000000004</v>
       </c>
-      <c r="G9" s="1">
+      <c r="E11">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.81010000000000004</v>
       </c>
-      <c r="H9">
-        <f>SUM(C9:G9)/5</f>
-        <v>0.4867800000000001</v>
+      <c r="I11">
+        <f>SUM(C11:G11)/5</f>
+        <v>0.81012000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13">
         <v>0.70609999999999995</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13">
         <v>0.71479999999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="E13">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="F13">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="G13" s="2">
         <v>0.70820000000000005</v>
       </c>
-      <c r="H11">
-        <f>SUM(C11:G11)/5</f>
-        <v>0.42582000000000003</v>
+      <c r="I13">
+        <f>SUM(C13:G13)/5</f>
+        <v>0.70822000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="D24">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E24">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.66579999999999995</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="I24">
+        <f>SUM(C24:G24)/5</f>
+        <v>0.67793999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.59740000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.59189999999999998</v>
+      </c>
+      <c r="F25">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I30" si="0">SUM(C25:G25)/5</f>
+        <v>0.59085999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.76060000000000005</v>
+      </c>
+      <c r="E27">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0.75160000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>0.8206</v>
+      </c>
+      <c r="D28">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="E28">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="F28">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0.81511999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.7268</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0.72611999999999988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="D41">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="F41">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="I41">
+        <f>SUM(C41:G41)/5</f>
+        <v>0.82666000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="D42">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="F42">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:I47" si="1">SUM(C42:G42)/5</f>
+        <v>0.44816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="E44">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F44">
+        <v>0.78</v>
+      </c>
+      <c r="G44">
+        <v>0.70420000000000005</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0.71986000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="D45">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E45">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="F45">
+        <v>0.68459999999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0.9103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="D47">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="E47">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="F47">
+        <v>0.6956</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.7349</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0.72733999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>0.80820000000000003</v>
+      </c>
+      <c r="D59">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="E59">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="F59">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="I59">
+        <f>SUM(C59:G59)/5</f>
+        <v>0.8116000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="D60">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="E60">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="F60">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I65" si="2">SUM(C60:G60)/5</f>
+        <v>0.52501999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="D62">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="F62">
+        <v>0.7399</v>
+      </c>
+      <c r="G62">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>0.74630000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="D63">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="E63">
+        <v>0.9204</v>
+      </c>
+      <c r="F63">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="G63">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>0.91975999999999991</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D65">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="E65">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="F65">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>0.76301999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/Results Table.xlsx
+++ b/Results Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Github\Covid-19_Mortality_Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7E046-DFD5-4913-85FD-96A3E54E0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7303F7-9B9B-4BFB-A347-4F4BF28CBA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Decision Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5459,10 +5463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE40CA-8F40-4AF2-8B4F-98FA1A2B1552}">
-  <dimension ref="A5:I65"/>
+  <dimension ref="A5:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6033,7 +6037,7 @@
         <v>0.91975999999999991</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>7</v>
       </c>
@@ -6056,6 +6060,59 @@
         <f t="shared" si="2"/>
         <v>0.76301999999999992</v>
       </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Results Table.xlsx
+++ b/Results Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Github\Covid-19_Mortality_Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7303F7-9B9B-4BFB-A347-4F4BF28CBA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC47E07-63D8-430F-AB19-52ACB08BDF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
   </bookViews>
@@ -5465,7 +5465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE40CA-8F40-4AF2-8B4F-98FA1A2B1552}">
   <dimension ref="A5:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C78" sqref="C78:I84"/>
     </sheetView>
   </sheetViews>

--- a/Results Table.xlsx
+++ b/Results Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Github\Covid-19_Mortality_Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC47E07-63D8-430F-AB19-52ACB08BDF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A9860-7133-4A6F-B05A-F716FE3A6972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
   <si>
     <t>Decision Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,12 +90,44 @@
     <t>CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayesian Classifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +160,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,6 +906,399 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Precision: DL vs ML</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-52A0-4224-8C0A-2C8618D3B8CD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-52A0-4224-8C0A-2C8618D3B8CD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-52A0-4224-8C0A-2C8618D3B8CD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$133:$B$139</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bayesian Classifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$133:$E$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.65739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76139999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52A0-4224-8C0A-2C8618D3B8CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="783254016"/>
+        <c:axId val="1013584512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="783254016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013584512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013584512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783254016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2793,7 +3227,2388 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CNN performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$77:$G$77</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$78:$G$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77669999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77559999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AD0-43C5-9495-50AAEEF94A60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$77:$G$77</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$79:$G$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.56720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56530000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AD0-43C5-9495-50AAEEF94A60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$77:$G$77</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$84:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76780000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76249999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0AD0-43C5-9495-50AAEEF94A60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="783246336"/>
+        <c:axId val="956870240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="783246336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956870240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956870240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783246336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>RNN performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$95:$G$95</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$96:$G$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77869999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78390000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78249999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F446-480D-A5BC-23EFBE368139}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$95:$G$95</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$97:$G$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55669999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55679999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F446-480D-A5BC-23EFBE368139}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$95:$G$95</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$102:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75960000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76259999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F446-480D-A5BC-23EFBE368139}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1024567568"/>
+        <c:axId val="1024794592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1024567568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024794592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1024794592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024567568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>DNN performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$117:$G$117</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$118:$G$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76139999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70E5-46F3-889C-FC3B27431B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$117:$G$117</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$119:$G$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.59319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59019999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70E5-46F3-889C-FC3B27431B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$117:$G$117</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centralized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$124:$G$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75980000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76390000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70E5-46F3-889C-FC3B27431B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1024572848"/>
+        <c:axId val="1014350832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1024572848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1014350832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1014350832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024572848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>ACC: DL vs ML</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-BB4C-4700-9512-361FB72F86DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BB4C-4700-9512-361FB72F86DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BB4C-4700-9512-361FB72F86DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$133:$B$139</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bayesian Classifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$133:$C$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.70820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76390000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB4C-4700-9512-361FB72F86DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="783254016"/>
+        <c:axId val="1013584512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="783254016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013584512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013584512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783254016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Recall: DL vs ML</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C9EB-4E1E-869C-A89BE3DED440}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C9EB-4E1E-869C-A89BE3DED440}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C9EB-4E1E-869C-A89BE3DED440}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$133:$B$139</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bayesian Classifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$133:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59019999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C9EB-4E1E-869C-A89BE3DED440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="783254016"/>
+        <c:axId val="1013584512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="783254016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013584512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013584512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783254016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2953,6 +5768,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3469,8 +6484,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3578,11 +6593,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3593,11 +6603,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3629,9 +6634,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3687,22 +6689,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3807,8 +6810,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3940,19 +6943,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3985,7 +6989,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4501,7 +7505,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4985,6 +7989,3080 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5158,6 +11236,226 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFAE3DB-2161-6F7D-8A97-93F574DA6643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362F76BA-8F34-863A-909D-A4C253527186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9CB1B4-6E57-ADCA-F2D9-5E49E3A7B3CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4476F9C-A6A2-3FFB-DAEB-9A94279F16FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFD6F6C-7FC1-459A-96B4-2CFAF9D694D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEBA333-A904-4633-8F62-D857338DBC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5463,18 +11761,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE40CA-8F40-4AF2-8B4F-98FA1A2B1552}">
-  <dimension ref="A5:I84"/>
+  <dimension ref="A5:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78:I84"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="AE149" sqref="AE149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -6062,7 +12360,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6086,33 +12384,584 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="2"/>
+      <c r="C78" s="3">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="I78">
+        <f>SUM(C78:G78)/5</f>
+        <v>0.77559999999999996</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="G79" s="2"/>
+      <c r="C79" s="3">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79:I84" si="3">SUM(C79:G79)/5</f>
+        <v>0.56535999999999997</v>
+      </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>10</v>
       </c>
+      <c r="C81" s="3">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.75639999999999996</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>0.75717999999999996</v>
+      </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>11</v>
       </c>
+      <c r="C82" s="3">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>0.89232</v>
+      </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="2"/>
+      <c r="C84" s="3">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.75839999999999996</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>0.76251999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="I96">
+        <f>SUM(C96:G96)/5</f>
+        <v>0.78254000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.55669999999999997</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.56379999999999997</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.55369999999999997</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ref="I97:I102" si="4">SUM(C97:G97)/5</f>
+        <v>0.55681999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="4"/>
+        <v>0.75480000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="4"/>
+        <v>0.89812000000000014</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="4"/>
+        <v>0.76261999999999985</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="I118">
+        <f>SUM(C118:G118)/5</f>
+        <v>0.76133999999999991</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="I119">
+        <f t="shared" ref="I119:I124" si="5">SUM(C119:G119)/5</f>
+        <v>0.59023999999999988</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.77080000000000004</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.75949999999999995</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="5"/>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="5"/>
+        <v>0.87817999999999985</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="5"/>
+        <v>0.76388000000000011</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <f>G13</f>
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="D133">
+        <f>G8</f>
+        <v>0.5534</v>
+      </c>
+      <c r="E133">
+        <f>G7</f>
+        <v>0.65739999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134">
+        <f>G30</f>
+        <v>0.7268</v>
+      </c>
+      <c r="D134">
+        <f>G25</f>
+        <v>0.59</v>
+      </c>
+      <c r="E134">
+        <f>G24</f>
+        <v>0.67949999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135">
+        <f>G47</f>
+        <v>0.7349</v>
+      </c>
+      <c r="D135">
+        <f>G42</f>
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="E135">
+        <f>G41</f>
+        <v>0.88219999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <f>G65</f>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D136">
+        <f>G60</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E136">
+        <f>G59</f>
+        <v>0.81159999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <f>G84</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="D137">
+        <f>G79</f>
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="E137">
+        <f>G78</f>
+        <v>0.77559999999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138">
+        <f>G102</f>
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="D138">
+        <f>G97</f>
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="E138">
+        <f>G96</f>
+        <v>0.78249999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139">
+        <f>G124</f>
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="D139">
+        <f>G119</f>
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="E139">
+        <f>G118</f>
+        <v>0.76139999999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141">
+        <f>MIN(C133:C139)</f>
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="D141">
+        <f>MIN(D133:D139)</f>
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="E141">
+        <f>MIN(E133:E139)</f>
+        <v>0.65739999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142">
+        <f>MAX(C133:C139)</f>
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="D142">
+        <f>MAX(D133:D139)</f>
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="E142">
+        <f>MAX(E133:E139)</f>
+        <v>0.88219999999999998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Results Table.xlsx
+++ b/Results Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Github\Covid-19_Mortality_Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A9860-7133-4A6F-B05A-F716FE3A6972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF62E0-6FEA-4CEB-AFE3-2C33DDEAF916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
   </bookViews>
@@ -11763,8 +11763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE40CA-8F40-4AF2-8B4F-98FA1A2B1552}">
   <dimension ref="A5:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="AE149" sqref="AE149"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Results Table.xlsx
+++ b/Results Table.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Github\Covid-19_Mortality_Rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Covid-19_Mortality_Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF62E0-6FEA-4CEB-AFE3-2C33DDEAF916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A6E90-6F43-4DAA-A194-4FF23694B488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
+    <workbookView xWindow="4512" yWindow="1356" windowWidth="16248" windowHeight="10728" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
   <si>
     <t>Decision Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,62 @@
   </si>
   <si>
     <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL Section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,8 +284,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,7 +303,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -953,7 +1009,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1346,7 +1402,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2044,7 +2100,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2737,7 +2793,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3230,7 +3286,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3748,7 +3804,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4266,7 +4322,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4785,7 +4841,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5178,7 +5234,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11465,7 +11521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11761,30 +11817,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE40CA-8F40-4AF2-8B4F-98FA1A2B1552}">
-  <dimension ref="A5:I142"/>
+  <dimension ref="A5:O161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="B144" workbookViewId="0">
+      <selection activeCell="L162" sqref="L162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -11804,7 +11860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -11828,7 +11884,7 @@
         <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -11852,7 +11908,7 @@
         <v>0.55346000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -11876,7 +11932,7 @@
         <v>0.73370000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -11900,7 +11956,7 @@
         <v>0.81012000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -11924,12 +11980,12 @@
         <v>0.70822000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -11949,7 +12005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -11973,7 +12029,7 @@
         <v>0.67793999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -11997,7 +12053,7 @@
         <v>0.59085999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -12021,7 +12077,7 @@
         <v>0.75160000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -12045,7 +12101,7 @@
         <v>0.81511999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>7</v>
       </c>
@@ -12069,12 +12125,12 @@
         <v>0.72611999999999988</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>1</v>
       </c>
@@ -12094,7 +12150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>8</v>
       </c>
@@ -12118,7 +12174,7 @@
         <v>0.82666000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -12142,7 +12198,7 @@
         <v>0.44816</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>10</v>
       </c>
@@ -12166,7 +12222,7 @@
         <v>0.71986000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -12190,7 +12246,7 @@
         <v>0.9103</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>7</v>
       </c>
@@ -12214,12 +12270,12 @@
         <v>0.72733999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>1</v>
       </c>
@@ -12239,7 +12295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>8</v>
       </c>
@@ -12263,7 +12319,7 @@
         <v>0.8116000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>9</v>
       </c>
@@ -12287,7 +12343,7 @@
         <v>0.52501999999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>10</v>
       </c>
@@ -12311,7 +12367,7 @@
         <v>0.74630000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>11</v>
       </c>
@@ -12335,7 +12391,7 @@
         <v>0.91975999999999991</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>7</v>
       </c>
@@ -12359,12 +12415,12 @@
         <v>0.76301999999999992</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>1</v>
       </c>
@@ -12384,7 +12440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>8</v>
       </c>
@@ -12408,7 +12464,7 @@
         <v>0.77559999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>9</v>
       </c>
@@ -12432,7 +12488,7 @@
         <v>0.56535999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>10</v>
       </c>
@@ -12456,7 +12512,7 @@
         <v>0.75717999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>11</v>
       </c>
@@ -12480,7 +12536,7 @@
         <v>0.89232</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>7</v>
       </c>
@@ -12504,12 +12560,12 @@
         <v>0.76251999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>1</v>
       </c>
@@ -12529,7 +12585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>8</v>
       </c>
@@ -12553,7 +12609,7 @@
         <v>0.78254000000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>9</v>
       </c>
@@ -12577,12 +12633,12 @@
         <v>0.55681999999999998</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>10</v>
       </c>
@@ -12606,7 +12662,7 @@
         <v>0.75480000000000003</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>11</v>
       </c>
@@ -12630,7 +12686,7 @@
         <v>0.89812000000000014</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>7</v>
       </c>
@@ -12654,12 +12710,12 @@
         <v>0.76261999999999985</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>1</v>
       </c>
@@ -12679,7 +12735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>8</v>
       </c>
@@ -12703,7 +12759,7 @@
         <v>0.76133999999999991</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>9</v>
       </c>
@@ -12727,7 +12783,7 @@
         <v>0.59023999999999988</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>10</v>
       </c>
@@ -12751,7 +12807,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>11</v>
       </c>
@@ -12775,7 +12831,7 @@
         <v>0.87817999999999985</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>7</v>
       </c>
@@ -12799,7 +12855,7 @@
         <v>0.76388000000000011</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>7</v>
       </c>
@@ -12810,7 +12866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>0</v>
       </c>
@@ -12827,7 +12883,7 @@
         <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>12</v>
       </c>
@@ -12844,7 +12900,7 @@
         <v>0.67949999999999999</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>19</v>
       </c>
@@ -12861,7 +12917,7 @@
         <v>0.88219999999999998</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>14</v>
       </c>
@@ -12878,7 +12934,7 @@
         <v>0.81159999999999999</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>15</v>
       </c>
@@ -12895,7 +12951,7 @@
         <v>0.77559999999999996</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>16</v>
       </c>
@@ -12912,7 +12968,7 @@
         <v>0.78249999999999997</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>18</v>
       </c>
@@ -12929,7 +12985,7 @@
         <v>0.76139999999999997</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>22</v>
       </c>
@@ -12946,7 +13002,7 @@
         <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>23</v>
       </c>
@@ -12961,6 +13017,292 @@
       <c r="E142">
         <f>MAX(E133:E139)</f>
         <v>0.88219999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="D149">
+        <v>74.75</v>
+      </c>
+      <c r="E149">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <v>76.33</v>
+      </c>
+      <c r="D150">
+        <v>74.83</v>
+      </c>
+      <c r="E150">
+        <v>60.84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151">
+        <v>76.28</v>
+      </c>
+      <c r="D151">
+        <v>75.2</v>
+      </c>
+      <c r="E151">
+        <v>60.07</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
+        <v>29</v>
+      </c>
+      <c r="L155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+      <c r="H156" t="s">
+        <v>26</v>
+      </c>
+      <c r="I156" t="s">
+        <v>32</v>
+      </c>
+      <c r="J156" t="s">
+        <v>28</v>
+      </c>
+      <c r="M156" t="s">
+        <v>26</v>
+      </c>
+      <c r="N156" t="s">
+        <v>32</v>
+      </c>
+      <c r="O156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="D157">
+        <v>74.75</v>
+      </c>
+      <c r="E157">
+        <v>60.4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157">
+        <v>76.28</v>
+      </c>
+      <c r="I157">
+        <v>75.2</v>
+      </c>
+      <c r="J157">
+        <v>60.07</v>
+      </c>
+      <c r="L157" t="s">
+        <v>33</v>
+      </c>
+      <c r="M157">
+        <v>76.33</v>
+      </c>
+      <c r="N157">
+        <v>74.83</v>
+      </c>
+      <c r="O157">
+        <v>60.84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158">
+        <v>76.14</v>
+      </c>
+      <c r="D158">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="E158">
+        <v>60.44</v>
+      </c>
+      <c r="G158" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158">
+        <v>76.17</v>
+      </c>
+      <c r="I158">
+        <v>75.05</v>
+      </c>
+      <c r="J158">
+        <v>60.17</v>
+      </c>
+      <c r="L158" t="s">
+        <v>34</v>
+      </c>
+      <c r="M158">
+        <v>76.14</v>
+      </c>
+      <c r="N158">
+        <v>74.59</v>
+      </c>
+      <c r="O158">
+        <v>60.81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D159">
+        <v>74.2</v>
+      </c>
+      <c r="E159">
+        <v>60.61</v>
+      </c>
+      <c r="G159" t="s">
+        <v>35</v>
+      </c>
+      <c r="H159">
+        <v>76.569999999999993</v>
+      </c>
+      <c r="I159">
+        <v>74.7</v>
+      </c>
+      <c r="J159">
+        <v>60.43</v>
+      </c>
+      <c r="L159" t="s">
+        <v>35</v>
+      </c>
+      <c r="M159">
+        <v>76.61</v>
+      </c>
+      <c r="N159">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="O159">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160">
+        <v>76.28</v>
+      </c>
+      <c r="D160">
+        <v>75.13</v>
+      </c>
+      <c r="E160">
+        <v>60.34</v>
+      </c>
+      <c r="G160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H160">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I160">
+        <v>75.7</v>
+      </c>
+      <c r="J160">
+        <v>59.9</v>
+      </c>
+      <c r="L160" t="s">
+        <v>37</v>
+      </c>
+      <c r="M160">
+        <v>76.59</v>
+      </c>
+      <c r="N160">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="O160">
+        <v>61.05</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D161">
+        <v>74.83</v>
+      </c>
+      <c r="E161">
+        <v>60.2</v>
+      </c>
+      <c r="G161" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161">
+        <v>76</v>
+      </c>
+      <c r="I161">
+        <v>75.34</v>
+      </c>
+      <c r="J161">
+        <v>59.78</v>
+      </c>
+      <c r="L161" t="s">
+        <v>36</v>
+      </c>
+      <c r="M161">
+        <v>75.97</v>
+      </c>
+      <c r="N161">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="O161">
+        <v>60.61</v>
       </c>
     </row>
   </sheetData>

--- a/Results Table.xlsx
+++ b/Results Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Covid-19_Mortality_Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A6E90-6F43-4DAA-A194-4FF23694B488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433A957A-4780-42F2-89B6-0EE361CAA5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="1356" windowWidth="16248" windowHeight="10728" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D016513F-30A3-42CF-8055-E1036AC92ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
   <si>
     <t>Decision Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,12 +178,64 @@
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ACC compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayesian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-FL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN-FL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNN-FL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +275,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -261,15 +321,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,10 +345,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1399,6 +1466,1063 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Global</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3567152230971129"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1E72-420D-8A01-8934C108F0A5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1E72-420D-8A01-8934C108F0A5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1E72-420D-8A01-8934C108F0A5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$168:$L$168</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Decision </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bayesian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CNN-FL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RNN-FL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DNN-FL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$169:$L$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.70820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76280000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76329999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E72-420D-8A01-8934C108F0A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="492040304"/>
+        <c:axId val="492042064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492040304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492042064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492042064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492040304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$173</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D226-4E82-8CFC-661A21E1EF1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D226-4E82-8CFC-661A21E1EF1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D226-4E82-8CFC-661A21E1EF1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$172:$L$172</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Decision </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bayesian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CNN-FL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RNN-FL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DNN-FL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$173:$L$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60840000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D226-4E82-8CFC-661A21E1EF1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D226-4E82-8CFC-661A21E1EF1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-D226-4E82-8CFC-661A21E1EF1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D226-4E82-8CFC-661A21E1EF1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$172:$L$172</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Decision </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bayesian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CNN-FL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RNN-FL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DNN-FL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$174:$L$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74829999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D226-4E82-8CFC-661A21E1EF1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="621009184"/>
+        <c:axId val="621007072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="621009184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621007072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="621007072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621009184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5665,6 +6789,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7013,6 +8217,1012 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11517,6 +13727,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>363070</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58270</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4F9E5A-297D-CC81-23FC-7D3DBA01E912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>372035</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE1C2C4-4C9A-7982-5DBC-1DBCC43FF2A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11817,10 +14099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE40CA-8F40-4AF2-8B4F-98FA1A2B1552}">
-  <dimension ref="A5:O161"/>
+  <dimension ref="A5:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B144" workbookViewId="0">
-      <selection activeCell="L162" sqref="L162"/>
+    <sheetView tabSelected="1" topLeftCell="N150" zoomScale="90" workbookViewId="0">
+      <selection activeCell="W157" sqref="W157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13037,42 +15319,42 @@
       <c r="B149" t="s">
         <v>25</v>
       </c>
-      <c r="C149">
-        <v>76.180000000000007</v>
-      </c>
-      <c r="D149">
-        <v>74.75</v>
-      </c>
-      <c r="E149">
-        <v>60.4</v>
+      <c r="C149" s="4">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="D149" s="4">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>30</v>
       </c>
-      <c r="C150">
-        <v>76.33</v>
-      </c>
-      <c r="D150">
-        <v>74.83</v>
-      </c>
-      <c r="E150">
-        <v>60.84</v>
+      <c r="C150" s="4">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0.60840000000000005</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>29</v>
       </c>
-      <c r="C151">
-        <v>76.28</v>
-      </c>
-      <c r="D151">
-        <v>75.2</v>
-      </c>
-      <c r="E151">
-        <v>60.07</v>
+      <c r="C151" s="4">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0.752</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0.60070000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -13120,37 +15402,37 @@
         <v>33</v>
       </c>
       <c r="C157">
-        <v>76.180000000000007</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="D157">
-        <v>74.75</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="E157">
-        <v>60.4</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G157" t="s">
         <v>33</v>
       </c>
       <c r="H157">
-        <v>76.28</v>
+        <v>0.76280000000000003</v>
       </c>
       <c r="I157">
-        <v>75.2</v>
+        <v>0.752</v>
       </c>
       <c r="J157">
-        <v>60.07</v>
+        <v>0.60070000000000001</v>
       </c>
       <c r="L157" t="s">
         <v>33</v>
       </c>
       <c r="M157">
-        <v>76.33</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="N157">
-        <v>74.83</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="O157">
-        <v>60.84</v>
+        <v>0.60840000000000005</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
@@ -13158,37 +15440,37 @@
         <v>34</v>
       </c>
       <c r="C158">
-        <v>76.14</v>
+        <v>0.76139999999999997</v>
       </c>
       <c r="D158">
-        <v>74.819999999999993</v>
+        <v>0.74819999999999998</v>
       </c>
       <c r="E158">
-        <v>60.44</v>
+        <v>0.60439999999999994</v>
       </c>
       <c r="G158" t="s">
         <v>34</v>
       </c>
       <c r="H158">
-        <v>76.17</v>
+        <v>0.76170000000000004</v>
       </c>
       <c r="I158">
-        <v>75.05</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="J158">
-        <v>60.17</v>
+        <v>0.60170000000000001</v>
       </c>
       <c r="L158" t="s">
         <v>34</v>
       </c>
       <c r="M158">
-        <v>76.14</v>
+        <v>0.76139999999999997</v>
       </c>
       <c r="N158">
-        <v>74.59</v>
+        <v>0.74590000000000001</v>
       </c>
       <c r="O158">
-        <v>60.81</v>
+        <v>0.60809999999999997</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -13196,37 +15478,37 @@
         <v>35</v>
       </c>
       <c r="C159">
-        <v>76.400000000000006</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="D159">
-        <v>74.2</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="E159">
-        <v>60.61</v>
+        <v>0.60609999999999997</v>
       </c>
       <c r="G159" t="s">
         <v>35</v>
       </c>
       <c r="H159">
-        <v>76.569999999999993</v>
+        <v>0.76569999999999994</v>
       </c>
       <c r="I159">
-        <v>74.7</v>
+        <v>0.747</v>
       </c>
       <c r="J159">
-        <v>60.43</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="L159" t="s">
         <v>35</v>
       </c>
       <c r="M159">
-        <v>76.61</v>
+        <v>0.7661</v>
       </c>
       <c r="N159">
-        <v>74.540000000000006</v>
+        <v>0.74540000000000006</v>
       </c>
       <c r="O159">
-        <v>60.9</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -13234,37 +15516,37 @@
         <v>37</v>
       </c>
       <c r="C160">
-        <v>76.28</v>
+        <v>0.76280000000000003</v>
       </c>
       <c r="D160">
-        <v>75.13</v>
+        <v>0.75129999999999997</v>
       </c>
       <c r="E160">
-        <v>60.34</v>
+        <v>0.60340000000000005</v>
       </c>
       <c r="G160" t="s">
         <v>37</v>
       </c>
       <c r="H160">
-        <v>76.400000000000006</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="I160">
-        <v>75.7</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="J160">
-        <v>59.9</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="L160" t="s">
         <v>37</v>
       </c>
       <c r="M160">
-        <v>76.59</v>
+        <v>0.76590000000000003</v>
       </c>
       <c r="N160">
-        <v>75.430000000000007</v>
+        <v>0.75430000000000008</v>
       </c>
       <c r="O160">
-        <v>61.05</v>
+        <v>0.61049999999999993</v>
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.25">
@@ -13272,37 +15554,238 @@
         <v>36</v>
       </c>
       <c r="C161">
-        <v>75.900000000000006</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="D161">
-        <v>74.83</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="E161">
-        <v>60.2</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="G161" t="s">
         <v>36</v>
       </c>
       <c r="H161">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="I161">
-        <v>75.34</v>
+        <v>0.75340000000000007</v>
       </c>
       <c r="J161">
-        <v>59.78</v>
+        <v>0.5978</v>
       </c>
       <c r="L161" t="s">
         <v>36</v>
       </c>
       <c r="M161">
-        <v>75.97</v>
+        <v>0.75970000000000004</v>
       </c>
       <c r="N161">
-        <v>74.760000000000005</v>
+        <v>0.74760000000000004</v>
       </c>
       <c r="O161">
-        <v>60.61</v>
+        <v>0.60609999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" t="s">
+        <v>40</v>
+      </c>
+      <c r="E168" t="s">
+        <v>41</v>
+      </c>
+      <c r="F168" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" t="s">
+        <v>44</v>
+      </c>
+      <c r="I168" t="s">
+        <v>45</v>
+      </c>
+      <c r="J168" t="s">
+        <v>46</v>
+      </c>
+      <c r="K168" t="s">
+        <v>47</v>
+      </c>
+      <c r="L168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <f>G13</f>
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="D169">
+        <f>G30</f>
+        <v>0.7268</v>
+      </c>
+      <c r="E169">
+        <f>G65</f>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F169">
+        <f>G47</f>
+        <v>0.7349</v>
+      </c>
+      <c r="G169">
+        <f>G84</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="H169">
+        <f>G102</f>
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="I169">
+        <f>G124</f>
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="J169">
+        <f>C157</f>
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="K169">
+        <f>H157</f>
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="L169">
+        <f>M157</f>
+        <v>0.76329999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" t="s">
+        <v>40</v>
+      </c>
+      <c r="E172" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" t="s">
+        <v>42</v>
+      </c>
+      <c r="G172" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172" t="s">
+        <v>44</v>
+      </c>
+      <c r="I172" t="s">
+        <v>45</v>
+      </c>
+      <c r="J172" t="s">
+        <v>46</v>
+      </c>
+      <c r="K172" t="s">
+        <v>47</v>
+      </c>
+      <c r="L172" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173">
+        <f>G8</f>
+        <v>0.5534</v>
+      </c>
+      <c r="D173">
+        <f>G25</f>
+        <v>0.59</v>
+      </c>
+      <c r="E173">
+        <f>G60</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F173">
+        <f>G42</f>
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="G173">
+        <f>G79</f>
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="H173">
+        <f>G97</f>
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="I173">
+        <f>G119</f>
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J173">
+        <f>E157</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="K173">
+        <f>J157</f>
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="L173">
+        <f>O157</f>
+        <v>0.60840000000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174">
+        <f>G7</f>
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="D174">
+        <f>G24</f>
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="E174">
+        <f>G59</f>
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="F174">
+        <f>G41</f>
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="G174">
+        <f>G78</f>
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="H174">
+        <f>G96</f>
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="I174">
+        <f>G118</f>
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="J174">
+        <f>D157</f>
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="K174">
+        <f>I157</f>
+        <v>0.752</v>
+      </c>
+      <c r="L174">
+        <f>N157</f>
+        <v>0.74829999999999997</v>
       </c>
     </row>
   </sheetData>
